--- a/AY25-26 CSE E4 S2.xlsx
+++ b/AY25-26 CSE E4 S2.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{500357BA-76A3-DD47-991E-503924F4DA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\New folder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B5EE945-10D5-487B-9683-03F5DB751BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="73">
   <si>
     <t>A.Y 25-26_E4_SEM2_COMPUTER SCIENCE AND ENGINEERING TIMETABLE</t>
   </si>
@@ -67,28 +61,25 @@
     <t>Slot-1</t>
   </si>
   <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE </t>
+  </si>
+  <si>
+    <t>Slot-2</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE </t>
-  </si>
-  <si>
-    <t>Slot-2</t>
-  </si>
-  <si>
     <t>Slot-3</t>
   </si>
   <si>
+    <t>Slot-4</t>
+  </si>
+  <si>
     <t>LUNCH BREAK</t>
-  </si>
-  <si>
-    <t>Slot-4</t>
   </si>
   <si>
     <t>Slot-5</t>
@@ -122,16 +113,16 @@
     <t>FACULTY</t>
   </si>
   <si>
-    <t>OE1</t>
+    <t>ENV</t>
   </si>
   <si>
     <t>3-0-0</t>
   </si>
   <si>
-    <t>FACULTY 1</t>
-  </si>
-  <si>
-    <t>OE2</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>BME/ST</t>
   </si>
   <si>
     <t>FACULTY 2</t>
@@ -252,6 +243,9 @@
   </si>
   <si>
     <t>0-0-2</t>
+  </si>
+  <si>
+    <t>Mr Swapnil</t>
   </si>
 </sst>
 </file>
@@ -340,12 +334,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -401,6 +389,12 @@
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -547,39 +541,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -633,18 +627,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -652,42 +640,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -696,31 +681,37 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -819,39 +810,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -903,7 +894,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1014,6 +1005,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1022,13 +1020,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1093,31 +1084,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1128,20 +1099,20 @@
   <dimension ref="A1:AMJ95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="F23" sqref="F23:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.98828125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.015625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" customWidth="1"/>
-    <col min="5" max="5" width="14.3515625" customWidth="1"/>
-    <col min="6" max="6" width="13.16796875" customWidth="1"/>
-    <col min="7" max="20" width="7.98828125" customWidth="1"/>
+    <col min="2" max="2" width="8" style="11" customWidth="1"/>
+    <col min="3" max="3" width="17" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1160,7 +1131,7 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1181,10 +1152,10 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
     </row>
-    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
     </row>
-    <row r="4" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -1235,91 +1206,71 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="19"/>
       <c r="G5" s="18"/>
       <c r="H5" s="17"/>
       <c r="I5" s="8"/>
       <c r="J5" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>12</v>
-      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="21"/>
       <c r="O5" s="19"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="17"/>
     </row>
-    <row r="6" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="E6" s="18"/>
       <c r="F6" s="24"/>
       <c r="G6" s="18"/>
       <c r="H6" s="25"/>
       <c r="I6" s="8"/>
       <c r="J6" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
       <c r="O6" s="24"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="25"/>
     </row>
-    <row r="7" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="27"/>
       <c r="E7" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="28"/>
@@ -1327,108 +1278,115 @@
       <c r="I7" s="8"/>
       <c r="J7" s="26"/>
       <c r="K7" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L7" s="18"/>
-      <c r="M7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>14</v>
+      </c>
       <c r="N7" s="24"/>
       <c r="O7" s="18"/>
       <c r="P7" s="28"/>
       <c r="Q7" s="25"/>
     </row>
-    <row r="8" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="B8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="8"/>
       <c r="J8" s="26"/>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="18"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="18"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="25"/>
+    </row>
+    <row r="9" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-    </row>
-    <row r="9" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="8"/>
       <c r="J9" s="26"/>
-      <c r="K9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="29"/>
-      <c r="S9" s="31"/>
-    </row>
-    <row r="10" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="C10" s="19"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="8"/>
       <c r="J10" s="26"/>
       <c r="K10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
     </row>
-    <row r="11" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
       <c r="B11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
+        <v>19</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="8"/>
       <c r="J11" s="26"/>
       <c r="K11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="T11" s="31"/>
-    </row>
-    <row r="12" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="M11" s="18"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="T11" s="30"/>
+    </row>
+    <row r="12" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>1</v>
       </c>
@@ -1479,26 +1437,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D13" s="18"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="F13" s="19"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="8"/>
       <c r="J13" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>10</v>
@@ -1506,400 +1460,384 @@
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="19"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="17"/>
+    </row>
+    <row r="14" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="P13" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="17"/>
-    </row>
-    <row r="14" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>14</v>
-      </c>
       <c r="B14" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="E14" s="18"/>
       <c r="F14" s="24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="25"/>
       <c r="I14" s="8"/>
       <c r="J14" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L14" s="24"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="N14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="24"/>
+      <c r="P14" s="18"/>
       <c r="Q14" s="25"/>
     </row>
-    <row r="15" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
+    <row r="15" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
       <c r="B15" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>11</v>
-      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="18"/>
       <c r="G15" s="28"/>
       <c r="H15" s="25"/>
       <c r="I15" s="8"/>
       <c r="J15" s="26"/>
       <c r="K15" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>12</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="27"/>
       <c r="N15" s="24"/>
-      <c r="O15" s="18"/>
+      <c r="O15" s="18" t="s">
+        <v>14</v>
+      </c>
       <c r="P15" s="28"/>
       <c r="Q15" s="25"/>
     </row>
-    <row r="16" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+    <row r="16" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="8"/>
       <c r="J16" s="26"/>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="18"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="25"/>
+    </row>
+    <row r="17" spans="1:1024" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="1:1024" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="B17" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="8"/>
       <c r="J17" s="26"/>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="1:1024" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="29"/>
-    </row>
-    <row r="18" spans="1:1024" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="18" t="s">
+        <v>14</v>
+      </c>
       <c r="F18" s="18"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="8"/>
       <c r="J18" s="26"/>
       <c r="K18" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" s="17"/>
-      <c r="M18" s="5"/>
+      <c r="M18" s="18" t="s">
+        <v>14</v>
+      </c>
       <c r="N18" s="18"/>
-      <c r="O18" s="5"/>
+      <c r="O18" s="18"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
     </row>
-    <row r="19" spans="1:1024" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
+    <row r="19" spans="1:1024" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
       <c r="B19" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
+        <v>19</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="8"/>
       <c r="J19" s="26"/>
       <c r="K19" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-    </row>
-    <row r="20" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:1024" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="29"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+    </row>
+    <row r="20" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:1024" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="D22" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="E22" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="F22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:1024" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:1024" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44" t="s">
+      <c r="D23" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="E23" s="43">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:1024" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="46">
+      <c r="B24" s="44"/>
+      <c r="C24" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="43">
         <v>3</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:1024" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="48" t="s">
+      <c r="F24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="46">
+      <c r="G24" s="5"/>
+      <c r="U24" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1024" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="39"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="43">
         <v>3</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="U24" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1024" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="42"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="46">
-        <v>3</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:1024" s="30" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="S26" s="51"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:1024" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="47"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="S26" s="48"/>
       <c r="AMJ26"/>
     </row>
-    <row r="27" spans="1:1024" s="30" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+    <row r="27" spans="1:1024" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="49"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
       <c r="AMJ27"/>
     </row>
-    <row r="28" spans="1:1024" s="30" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+    <row r="28" spans="1:1024" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="47"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
       <c r="AMJ28"/>
     </row>
-    <row r="29" spans="1:1024" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:1024" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:1024" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:1024" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="47"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:1024" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="47"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:1024" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="54"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:1024" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
+  <mergeCells count="19">
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
     <mergeCell ref="I12:I19"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="I4:I11"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="K9:Q9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -1914,9 +1852,9 @@
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -1967,7 +1905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
@@ -1975,136 +1913,136 @@
         <v>10</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="8"/>
       <c r="J2" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="19" t="s">
+      <c r="P2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="17"/>
+    </row>
+    <row r="3" spans="1:17" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="B3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="17"/>
-    </row>
-    <row r="3" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>36</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="8"/>
       <c r="J3" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>36</v>
-      </c>
       <c r="P3" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="25"/>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A4" s="26"/>
       <c r="B4" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="8"/>
       <c r="J4" s="26"/>
       <c r="K4" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="25"/>
     </row>
-    <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
       <c r="B5" s="7" t="s">
         <v>17</v>
@@ -2127,92 +2065,92 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
       <c r="B6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+        <v>35</v>
+      </c>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
       <c r="I6" s="8"/>
       <c r="J6" s="26"/>
       <c r="K6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="30"/>
-      <c r="O6" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="P6" s="21"/>
-      <c r="Q6" s="29"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q6" s="55"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="8"/>
       <c r="J7" s="26"/>
       <c r="K7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="2"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
       <c r="B8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+        <v>19</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="8"/>
       <c r="J8" s="26"/>
       <c r="K8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>1</v>
       </c>
@@ -2263,134 +2201,134 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="8"/>
       <c r="J10" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>10</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="18" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="17"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="8"/>
       <c r="J11" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="58" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="N11" s="56" t="s">
+        <v>34</v>
       </c>
       <c r="O11" s="24"/>
       <c r="P11" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="25"/>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
       <c r="B12" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="25"/>
       <c r="I12" s="8"/>
       <c r="J12" s="26"/>
       <c r="K12" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="28" t="s">
-        <v>36</v>
-      </c>
       <c r="Q12" s="25"/>
     </row>
-    <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="7" t="s">
         <v>17</v>
@@ -2413,310 +2351,310 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="E14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="29"/>
+      <c r="G14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="55"/>
       <c r="I14" s="8"/>
       <c r="J14" s="26"/>
       <c r="K14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="35" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="57" t="s">
+        <v>30</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" s="29"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="55"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="17"/>
       <c r="I15" s="8"/>
       <c r="J15" s="26"/>
       <c r="K15" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="O15" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="O15" s="1"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="32"/>
+        <v>19</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="8"/>
       <c r="J16" s="26"/>
       <c r="K16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+    </row>
+    <row r="19" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="43">
+        <v>3</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="43">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="43">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A23" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="43">
+        <v>4</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-    </row>
-    <row r="19" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="46">
+      <c r="B24" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="43">
         <v>3</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="46">
+      <c r="F24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="43">
         <v>3</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="49" t="s">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="43">
+        <v>3</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="46">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="43">
         <v>3</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="46">
-        <v>4</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="46">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="46">
-        <v>3</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="46">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="48" t="s">
+      <c r="F27" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="46">
-        <v>3</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="57" t="s">
+      <c r="B28" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="C28" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="D28" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="46">
+      <c r="E28" s="43">
         <v>2</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="24">
